--- a/data/output/FV2404_FV2310/REMADV/33004.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="245">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="245">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -935,6 +935,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U100" totalsRowShown="0">
+  <autoFilter ref="A1:U100"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,7 +1254,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5861,5 +5894,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/REMADV/33004.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="341">
   <si>
     <t>#</t>
   </si>
@@ -5895,9 +5895,7 @@
         <v>210</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>38</v>
       </c>
@@ -6009,9 +6007,7 @@
         <v>194</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>38</v>
       </c>
@@ -6111,9 +6107,7 @@
         <v>194</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>39</v>
       </c>
@@ -6167,9 +6161,7 @@
       <c r="K92" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="L92" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>39</v>
       </c>
@@ -6196,44 +6188,42 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M93" s="5" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5" t="s">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V93" s="5"/>
+      <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6261,9 +6251,7 @@
         <v>194</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>40</v>
       </c>
@@ -6288,44 +6276,42 @@
       <c r="V94" s="5"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="K95" s="2"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5" t="s">
+      <c r="N95" s="2"/>
+      <c r="O95" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V95" s="5"/>
+      <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -6353,9 +6339,7 @@
         <v>194</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>41</v>
       </c>
@@ -6405,9 +6389,7 @@
       <c r="K97" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>41</v>
       </c>
@@ -6432,44 +6414,42 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5" t="s">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -6495,9 +6475,7 @@
         <v>194</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>42</v>
       </c>
@@ -6543,9 +6521,7 @@
         <v>194</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>42</v>
       </c>

--- a/data/output/FV2404_FV2310/REMADV/33004.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33004.xlsx
@@ -1678,7 +1678,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2772,7 +2772,7 @@
         <v>216</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4696,23 +4696,23 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="6" t="s">
         <v>202</v>
       </c>
@@ -4722,20 +4722,20 @@
       <c r="L64" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O64" s="5" t="s">
+      <c r="O64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
       <c r="U64" s="6" t="s">
         <v>239</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>222</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5066,7 +5066,7 @@
         <v>224</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5820,24 +5820,24 @@
       <c r="V85" s="9"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>209</v>
       </c>
       <c r="K86" s="6" t="s">
@@ -5846,21 +5846,21 @@
       <c r="L86" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O86" s="5" t="s">
+      <c r="O86" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>209</v>
       </c>
       <c r="V86" s="6" t="s">
@@ -6032,23 +6032,23 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
       <c r="J90" s="6" t="s">
         <v>212</v>
       </c>
@@ -6058,20 +6058,20 @@
       <c r="L90" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O90" s="5" t="s">
+      <c r="O90" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
       <c r="U90" s="6" t="s">
         <v>241</v>
       </c>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N93" s="2"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2"/>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2"/>
